--- a/FUNCION SI(EJERCICIOS DIVERSOS).xlsx
+++ b/FUNCION SI(EJERCICIOS DIVERSOS).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ED2B21-7C94-4371-97FE-4EC906339BF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC96789-DFC1-47E4-AFDB-68861114ADE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" tabRatio="820" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="2205" windowWidth="21600" windowHeight="11760" tabRatio="820" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EJEMPLO 01" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="139">
   <si>
     <t>NOMBRES</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Después 1990 y antes del 2001</t>
   </si>
   <si>
-    <t>Después del 2000</t>
-  </si>
-  <si>
     <t>DETERMINAR LAS "BONIFICACIONES" MEDIANTE LA "FECHA DE INGRESO" DE LA PERSONA</t>
   </si>
   <si>
@@ -544,7 +541,31 @@
     <t>&lt;1990-2001&gt;</t>
   </si>
   <si>
-    <t>&gt;2000</t>
+    <t>AND(Y)</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>OR(O)</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Después del 2001</t>
+  </si>
+  <si>
+    <t>&gt;2001</t>
   </si>
 </sst>
 </file>
@@ -849,11 +870,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -899,14 +920,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -918,7 +938,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -933,13 +953,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -965,27 +985,31 @@
     <xf numFmtId="9" fontId="26" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3211,7 +3235,7 @@
   <dimension ref="B10:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3224,24 +3248,24 @@
   </cols>
   <sheetData>
     <row r="10" spans="2:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>86</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="38">
         <v>19</v>
       </c>
-      <c r="D11" s="40" t="str">
+      <c r="D11" s="39" t="str">
         <f>IF(C11&gt;=18,"MAYOR DE EDAD","MENOR DE EDAD")</f>
         <v>MAYOR DE EDAD</v>
       </c>
@@ -3250,10 +3274,10 @@
       <c r="B12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="38">
         <v>24</v>
       </c>
-      <c r="D12" s="40" t="str">
+      <c r="D12" s="39" t="str">
         <f t="shared" ref="D12:D19" si="0">IF(C12&gt;=18,"MAYOR DE EDAD","MENOR DE EDAD")</f>
         <v>MAYOR DE EDAD</v>
       </c>
@@ -3262,10 +3286,10 @@
       <c r="B13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="38">
         <v>12</v>
       </c>
-      <c r="D13" s="40" t="str">
+      <c r="D13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>MENOR DE EDAD</v>
       </c>
@@ -3274,10 +3298,10 @@
       <c r="B14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="38">
         <v>11</v>
       </c>
-      <c r="D14" s="40" t="str">
+      <c r="D14" s="39" t="str">
         <f t="shared" si="0"/>
         <v>MENOR DE EDAD</v>
       </c>
@@ -3286,10 +3310,10 @@
       <c r="B15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="38">
         <v>18</v>
       </c>
-      <c r="D15" s="40" t="str">
+      <c r="D15" s="39" t="str">
         <f t="shared" si="0"/>
         <v>MAYOR DE EDAD</v>
       </c>
@@ -3298,10 +3322,10 @@
       <c r="B16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="38">
         <v>16</v>
       </c>
-      <c r="D16" s="40" t="str">
+      <c r="D16" s="39" t="str">
         <f t="shared" si="0"/>
         <v>MENOR DE EDAD</v>
       </c>
@@ -3310,10 +3334,10 @@
       <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="38">
         <v>17</v>
       </c>
-      <c r="D17" s="40" t="str">
+      <c r="D17" s="39" t="str">
         <f t="shared" si="0"/>
         <v>MENOR DE EDAD</v>
       </c>
@@ -3322,10 +3346,10 @@
       <c r="B18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="38">
         <v>19</v>
       </c>
-      <c r="D18" s="40" t="str">
+      <c r="D18" s="39" t="str">
         <f t="shared" si="0"/>
         <v>MAYOR DE EDAD</v>
       </c>
@@ -3334,10 +3358,10 @@
       <c r="B19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="38">
         <v>10</v>
       </c>
-      <c r="D19" s="40" t="str">
+      <c r="D19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>MENOR DE EDAD</v>
       </c>
@@ -3355,312 +3379,378 @@
   </sheetPr>
   <dimension ref="B9:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="44" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="44"/>
-    <col min="7" max="7" width="12" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="44" customWidth="1"/>
-    <col min="9" max="16384" width="11.5703125" style="44"/>
+    <col min="1" max="1" width="5.7109375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="43"/>
+    <col min="7" max="7" width="12" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="43" customWidth="1"/>
+    <col min="9" max="16384" width="11.5703125" style="43"/>
   </cols>
   <sheetData>
     <row r="9" spans="2:8" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="D9" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="E9" s="47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="45" t="s">
+      <c r="D10" s="44">
+        <v>1</v>
+      </c>
+      <c r="E10" s="45">
+        <f>IF(AND(C10="UNIVERSITARIO",D10&gt;=2),$H$12,IF(AND(C10="TECNICO",D10&gt;=1),$H$13,1000))</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="44">
+        <v>2</v>
+      </c>
+      <c r="E11" s="45">
+        <f t="shared" ref="E11:E31" si="0">IF(AND(C11="UNIVERSITARIO",D11&gt;=2),$H$12,IF(AND(C11="TECNICO",D11&gt;=1),$H$13,1000))</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D12" s="44">
+        <v>3</v>
+      </c>
+      <c r="E12" s="45">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="49">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="44">
+        <v>2</v>
+      </c>
+      <c r="E13" s="45">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="49">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="44">
         <v>1</v>
       </c>
-      <c r="E10" s="46"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="45" t="s">
+      <c r="E14" s="45">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0</v>
+      </c>
+      <c r="E15" s="45">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D16" s="44">
+        <v>0</v>
+      </c>
+      <c r="E16" s="45">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="44">
         <v>2</v>
       </c>
-      <c r="E11" s="46"/>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="45">
+      <c r="E17" s="45">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="44">
         <v>3</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="G12" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="50">
+      <c r="E18" s="45">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="44">
+        <v>2</v>
+      </c>
+      <c r="E19" s="45">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="44">
+        <v>3</v>
+      </c>
+      <c r="E20" s="45">
+        <f t="shared" si="0"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="45">
+    <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="44">
+        <v>4</v>
+      </c>
+      <c r="E21" s="45">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="44">
+        <v>5</v>
+      </c>
+      <c r="E22" s="45">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="44">
+        <v>6</v>
+      </c>
+      <c r="E23" s="45">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="44">
+        <v>6</v>
+      </c>
+      <c r="E24" s="45">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="44">
+        <v>5</v>
+      </c>
+      <c r="E25" s="45">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="44">
+        <v>4</v>
+      </c>
+      <c r="E26" s="45">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="44">
+        <v>3</v>
+      </c>
+      <c r="E27" s="45">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="44">
         <v>2</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="G13" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="50">
+      <c r="E28" s="45">
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="45">
+    <row r="29" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="44">
         <v>1</v>
       </c>
-      <c r="E14" s="46"/>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="45" t="s">
+      <c r="E29" s="45">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="44">
+        <v>2</v>
+      </c>
+      <c r="E30" s="45">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="45">
-        <v>0</v>
-      </c>
-      <c r="E15" s="46"/>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="45">
-        <v>0</v>
-      </c>
-      <c r="E16" s="46"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="45">
-        <v>2</v>
-      </c>
-      <c r="E17" s="46"/>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="45">
-        <v>3</v>
-      </c>
-      <c r="E18" s="46"/>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="45">
-        <v>2</v>
-      </c>
-      <c r="E19" s="46"/>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="45">
-        <v>3</v>
-      </c>
-      <c r="E20" s="46"/>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="45">
-        <v>4</v>
-      </c>
-      <c r="E21" s="46"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="45">
+      <c r="D31" s="44">
         <v>5</v>
       </c>
-      <c r="E22" s="46"/>
-    </row>
-    <row r="23" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="45">
-        <v>6</v>
-      </c>
-      <c r="E23" s="46"/>
-    </row>
-    <row r="24" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="45">
-        <v>6</v>
-      </c>
-      <c r="E24" s="46"/>
-    </row>
-    <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D25" s="45">
-        <v>5</v>
-      </c>
-      <c r="E25" s="46"/>
-    </row>
-    <row r="26" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="45">
-        <v>4</v>
-      </c>
-      <c r="E26" s="46"/>
-    </row>
-    <row r="27" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="45">
-        <v>3</v>
-      </c>
-      <c r="E27" s="46"/>
-    </row>
-    <row r="28" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="45">
-        <v>2</v>
-      </c>
-      <c r="E28" s="46"/>
-    </row>
-    <row r="29" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="45">
-        <v>1</v>
-      </c>
-      <c r="E29" s="46"/>
-    </row>
-    <row r="30" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" s="45">
-        <v>2</v>
-      </c>
-      <c r="E30" s="46"/>
-    </row>
-    <row r="31" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="45">
-        <v>5</v>
-      </c>
-      <c r="E31" s="46"/>
+      <c r="E31" s="45">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3677,7 +3767,7 @@
   <dimension ref="A3:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3690,12 +3780,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
     </row>
     <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
     </row>
     <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
@@ -3729,7 +3819,7 @@
       <c r="D8" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="32" t="str">
+      <c r="E8" s="31" t="str">
         <f>IF(D8="M","MASCULINO","FEMENINO")</f>
         <v>FEMENINO</v>
       </c>
@@ -3744,7 +3834,7 @@
       <c r="D9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="32" t="str">
+      <c r="E9" s="31" t="str">
         <f t="shared" ref="E9:E13" si="0">IF(D9="M","MASCULINO","FEMENINO")</f>
         <v>FEMENINO</v>
       </c>
@@ -3759,7 +3849,7 @@
       <c r="D10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="32" t="str">
+      <c r="E10" s="31" t="str">
         <f t="shared" si="0"/>
         <v>MASCULINO</v>
       </c>
@@ -3774,7 +3864,7 @@
       <c r="D11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="32" t="str">
+      <c r="E11" s="31" t="str">
         <f t="shared" si="0"/>
         <v>MASCULINO</v>
       </c>
@@ -3789,7 +3879,7 @@
       <c r="D12" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="32" t="str">
+      <c r="E12" s="31" t="str">
         <f t="shared" si="0"/>
         <v>MASCULINO</v>
       </c>
@@ -3804,7 +3894,7 @@
       <c r="D13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="32" t="str">
+      <c r="E13" s="31" t="str">
         <f t="shared" si="0"/>
         <v>FEMENINO</v>
       </c>
@@ -3848,10 +3938,10 @@
   <sheetData>
     <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="8"/>
@@ -3859,26 +3949,26 @@
       <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="B6" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -3892,42 +3982,42 @@
     </row>
     <row r="8" spans="2:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>84</v>
-      </c>
       <c r="G8" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
         <v>14</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="32">
         <v>13</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>17</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="50">
         <f>AVERAGE(C9:E9)</f>
         <v>14.666666666666666</v>
       </c>
-      <c r="G9" s="66" t="str">
+      <c r="G9" s="60" t="str">
         <f>IF(F9&gt;=10.5,"APROBADO","REPROBADO")</f>
         <v>APROBADO</v>
       </c>
@@ -3937,21 +4027,21 @@
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="32">
         <v>8</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="32">
         <v>9</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>10</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="50">
         <f t="shared" ref="F10:F14" si="0">AVERAGE(C10:E10)</f>
         <v>9</v>
       </c>
-      <c r="G10" s="67" t="str">
-        <f t="shared" ref="G10:G14" si="1">IF(F10&gt;=10.5,"APROBADO","REPROBADO")</f>
+      <c r="G10" s="61" t="str">
+        <f t="shared" ref="G10:G13" si="1">IF(F10&gt;=10.5,"APROBADO","REPROBADO")</f>
         <v>REPROBADO</v>
       </c>
     </row>
@@ -3959,20 +4049,20 @@
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <v>5</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="32">
         <v>4</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>14</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="50">
         <f t="shared" si="0"/>
         <v>7.666666666666667</v>
       </c>
-      <c r="G11" s="67" t="str">
+      <c r="G11" s="61" t="str">
         <f t="shared" si="1"/>
         <v>REPROBADO</v>
       </c>
@@ -3981,20 +4071,20 @@
       <c r="B12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <v>6</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="32">
         <v>15</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <v>6</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="50">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G12" s="67" t="str">
+      <c r="G12" s="61" t="str">
         <f t="shared" si="1"/>
         <v>REPROBADO</v>
       </c>
@@ -4003,20 +4093,20 @@
       <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
         <v>8</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="32">
         <v>11</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>10</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="50">
         <f t="shared" si="0"/>
         <v>9.6666666666666661</v>
       </c>
-      <c r="G13" s="67" t="str">
+      <c r="G13" s="61" t="str">
         <f t="shared" si="1"/>
         <v>REPROBADO</v>
       </c>
@@ -4025,20 +4115,20 @@
       <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="32">
         <v>16</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="32">
         <v>12</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>11</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="50">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G14" s="66" t="str">
+      <c r="G14" s="60" t="str">
         <f>IF(F14&gt;=10.5,"APROBADO","REPROBADO")</f>
         <v>APROBADO</v>
       </c>
@@ -4090,141 +4180,141 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="E4" s="51" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E4" s="52" t="s">
-        <v>123</v>
-      </c>
-    </row>
     <row r="5" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E5" s="52" t="s">
-        <v>121</v>
+      <c r="E5" s="51" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55" t="s">
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55" t="s">
         <v>126</v>
+      </c>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="14" t="s">
+    </row>
+    <row r="12" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="57">
+      <c r="C12" s="56">
         <v>14</v>
       </c>
-      <c r="D12" s="58" t="str">
+      <c r="D12" s="57" t="str">
         <f>IF(C12&lt;13,"NO SE OTORGA BECA",IF(C12&lt;15,"60%","80%"))</f>
         <v>60%</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="57">
+      <c r="B13" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="56">
         <v>13</v>
       </c>
-      <c r="D13" s="58" t="str">
+      <c r="D13" s="57" t="str">
         <f t="shared" ref="D13:D19" si="0">IF(C13&lt;13,"NO SE OTORGA BECA",IF(C13&lt;15,"60%","80%"))</f>
         <v>60%</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="56">
+        <v>15</v>
+      </c>
+      <c r="D14" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>80%</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C15" s="56">
+        <v>14</v>
+      </c>
+      <c r="D15" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>60%</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="56">
+        <v>11</v>
+      </c>
+      <c r="D16" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>NO SE OTORGA BECA</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="56">
         <v>15</v>
       </c>
-      <c r="D14" s="58" t="str">
+      <c r="D17" s="57" t="str">
         <f t="shared" si="0"/>
         <v>80%</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="57">
-        <v>14</v>
-      </c>
-      <c r="D15" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v>60%</v>
-      </c>
-      <c r="H15" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="57">
-        <v>11</v>
-      </c>
-      <c r="D16" s="58" t="str">
+    <row r="18" spans="2:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="56">
+        <v>12.99</v>
+      </c>
+      <c r="D18" s="57" t="str">
         <f t="shared" si="0"/>
         <v>NO SE OTORGA BECA</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="57">
-        <v>15</v>
-      </c>
-      <c r="D17" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v>80%</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+    <row r="19" spans="2:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="57">
-        <v>12.99</v>
-      </c>
-      <c r="D18" s="58" t="str">
-        <f t="shared" si="0"/>
-        <v>NO SE OTORGA BECA</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="57">
+      <c r="C19" s="56">
         <v>14.99</v>
       </c>
-      <c r="D19" s="58" t="str">
+      <c r="D19" s="57" t="str">
         <f t="shared" si="0"/>
         <v>60%</v>
       </c>
@@ -4241,10 +4331,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A4:F20"/>
+  <dimension ref="B4:N20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4257,61 +4347,105 @@
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-    </row>
-    <row r="9" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+    <row r="4" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="29"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="29"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="N7" s="67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H8" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="H9" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="70"/>
+      <c r="L9" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>50</v>
       </c>
@@ -4321,13 +4455,37 @@
       <c r="D10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="34">
         <v>2000</v>
       </c>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="F10" s="30">
+        <f>IF(AND(MONTH(C10)=12,D10="A"),E10*0.2,E10*0.1)</f>
+        <v>200</v>
+      </c>
+      <c r="G10">
+        <f>IF(MONTH(C10)=12,IF(D10="A",E10*0.2),E10*0.1)</f>
+        <v>200</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>51</v>
       </c>
@@ -4337,13 +4495,37 @@
       <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="34">
         <v>1500</v>
       </c>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="F11" s="30">
+        <f t="shared" ref="F11:F18" si="0">IF(AND(MONTH(C11)=12,D11="A"),E11*0.2,E11*0.1)</f>
+        <v>300</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G18" si="1">IF(MONTH(C11)=12,IF(D11="A",E11*0.2),E11*0.1)</f>
+        <v>300</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>52</v>
       </c>
@@ -4353,13 +4535,19 @@
       <c r="D12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="34">
         <v>2500</v>
       </c>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="F12" s="30">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>53</v>
       </c>
@@ -4369,13 +4557,19 @@
       <c r="D13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="34">
         <v>1500</v>
       </c>
-      <c r="F13" s="31"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="F13" s="30">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>54</v>
       </c>
@@ -4385,13 +4579,22 @@
       <c r="D14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="34">
         <v>1000</v>
       </c>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="F14" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>55</v>
       </c>
@@ -4401,13 +4604,25 @@
       <c r="D15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="34">
         <v>1400</v>
       </c>
-      <c r="F15" s="31"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="F15" s="30">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="J15" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>56</v>
       </c>
@@ -4417,12 +4632,25 @@
       <c r="D16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="34">
         <v>1500</v>
       </c>
-      <c r="F16" s="31"/>
-    </row>
-    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F16" s="30">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="J16" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>57</v>
       </c>
@@ -4432,12 +4660,25 @@
       <c r="D17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="34">
         <v>2000</v>
       </c>
-      <c r="F17" s="31"/>
-    </row>
-    <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F17" s="30">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J17" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="18" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>58</v>
       </c>
@@ -4447,12 +4688,19 @@
       <c r="D18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="34">
         <v>1200</v>
       </c>
-      <c r="F18" s="31"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="30">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C20">
         <f>MONTH(C10)</f>
         <v>3</v>
@@ -4473,10 +4721,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B4:G17"/>
+  <dimension ref="B4:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4489,56 +4737,45 @@
     <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="29"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+    </row>
+    <row r="5" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="29"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+    </row>
+    <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="29"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="8" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>50</v>
       </c>
@@ -4548,12 +4785,15 @@
       <c r="D9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <v>2000</v>
       </c>
-      <c r="F9" s="59"/>
-    </row>
-    <row r="10" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="F9" s="58">
+        <f>IF(AND(YEAR(C9)&gt;=2000,D9="A"),E9*0.15,E9*0.05)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>51</v>
       </c>
@@ -4563,12 +4803,15 @@
       <c r="D10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <v>1500</v>
       </c>
-      <c r="F10" s="59"/>
-    </row>
-    <row r="11" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="F10" s="58">
+        <f t="shared" ref="F10:F17" si="0">IF(AND(YEAR(C10)&gt;=2000,D10="A"),E10*0.15,E10*0.05)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>52</v>
       </c>
@@ -4578,12 +4821,15 @@
       <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <v>2500</v>
       </c>
-      <c r="F11" s="59"/>
-    </row>
-    <row r="12" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="F11" s="58">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>53</v>
       </c>
@@ -4593,12 +4839,15 @@
       <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <v>1500</v>
       </c>
-      <c r="F12" s="59"/>
-    </row>
-    <row r="13" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="F12" s="58">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>54</v>
       </c>
@@ -4608,12 +4857,15 @@
       <c r="D13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="36">
         <v>1000</v>
       </c>
-      <c r="F13" s="59"/>
-    </row>
-    <row r="14" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="F13" s="58">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>55</v>
       </c>
@@ -4623,12 +4875,15 @@
       <c r="D14" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>1400</v>
       </c>
-      <c r="F14" s="59"/>
-    </row>
-    <row r="15" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="F14" s="58">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>56</v>
       </c>
@@ -4638,12 +4893,15 @@
       <c r="D15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <v>1500</v>
       </c>
-      <c r="F15" s="59"/>
-    </row>
-    <row r="16" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="F15" s="58">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
@@ -4653,13 +4911,15 @@
       <c r="D16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="36">
         <v>2000</v>
       </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="F16" s="58">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>58</v>
       </c>
@@ -4669,11 +4929,13 @@
       <c r="D17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="36">
         <v>1200</v>
       </c>
-      <c r="F17" s="59"/>
-      <c r="G17" s="29"/>
+      <c r="F17" s="58">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4704,14 +4966,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="4" spans="3:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
@@ -4745,85 +5007,85 @@
       </c>
     </row>
     <row r="12" spans="3:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="37" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42" t="str">
+      <c r="E12" s="41" t="str">
         <f>IF(D12="D","DIVORCIADO",IF(D12="V","VIUDO",IF(D12="C","CASADO","SOLTERO")))</f>
         <v>DIVORCIADO</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="37" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="42" t="str">
+      <c r="E13" s="41" t="str">
         <f t="shared" ref="E13:E18" si="0">IF(D13="D","DIVORCIADO",IF(D13="V","VIUDO",IF(D13="C","CASADO","SOLTERO")))</f>
         <v>SOLTERO</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="37" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="42" t="str">
+      <c r="E14" s="41" t="str">
         <f t="shared" si="0"/>
         <v>CASADO</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="37" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="42" t="str">
+      <c r="E15" s="41" t="str">
         <f t="shared" si="0"/>
         <v>VIUDO</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="42" t="str">
+      <c r="E16" s="41" t="str">
         <f t="shared" si="0"/>
         <v>CASADO</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="42" t="str">
+      <c r="E17" s="41" t="str">
         <f t="shared" si="0"/>
         <v>SOLTERO</v>
       </c>
     </row>
     <row r="18" spans="3:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="42" t="str">
+      <c r="E18" s="41" t="str">
         <f t="shared" si="0"/>
         <v>VIUDO</v>
       </c>
@@ -4872,14 +5134,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
@@ -4953,7 +5215,7 @@
       <c r="E11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="43" t="str">
+      <c r="F11" s="42" t="str">
         <f>IF(E11="D","1,000",IF(E11="C","1,500",IF(E11="B","2,000","2,500")))</f>
         <v>1,500</v>
       </c>
@@ -4968,7 +5230,7 @@
       <c r="E12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="43" t="str">
+      <c r="F12" s="42" t="str">
         <f t="shared" ref="F12:F22" si="0">IF(E12="D","1,000",IF(E12="C","1,500",IF(E12="B","2,000","2,500")))</f>
         <v>2,000</v>
       </c>
@@ -4983,7 +5245,7 @@
       <c r="E13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="43" t="str">
+      <c r="F13" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1,500</v>
       </c>
@@ -4998,7 +5260,7 @@
       <c r="E14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="43" t="str">
+      <c r="F14" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2,500</v>
       </c>
@@ -5013,7 +5275,7 @@
       <c r="E15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="43" t="str">
+      <c r="F15" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2,000</v>
       </c>
@@ -5028,7 +5290,7 @@
       <c r="E16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="43" t="str">
+      <c r="F16" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1,000</v>
       </c>
@@ -5043,7 +5305,7 @@
       <c r="E17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="43" t="str">
+      <c r="F17" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2,500</v>
       </c>
@@ -5058,7 +5320,7 @@
       <c r="E18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="43" t="str">
+      <c r="F18" s="42" t="str">
         <f t="shared" si="0"/>
         <v>1,500</v>
       </c>
@@ -5073,7 +5335,7 @@
       <c r="E19" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="43" t="str">
+      <c r="F19" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2,000</v>
       </c>
@@ -5088,7 +5350,7 @@
       <c r="E20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="43" t="str">
+      <c r="F20" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2,500</v>
       </c>
@@ -5103,7 +5365,7 @@
       <c r="E21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="43" t="str">
+      <c r="F21" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2,500</v>
       </c>
@@ -5118,7 +5380,7 @@
       <c r="E22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="43" t="str">
+      <c r="F22" s="42" t="str">
         <f t="shared" si="0"/>
         <v>2,000</v>
       </c>
@@ -5144,8 +5406,8 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5169,7 +5431,7 @@
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -5207,8 +5469,8 @@
       <c r="D6" s="21">
         <v>150</v>
       </c>
-      <c r="F6" s="60" t="s">
-        <v>128</v>
+      <c r="F6" s="59" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
@@ -5219,8 +5481,8 @@
       <c r="D7" s="21">
         <v>100</v>
       </c>
-      <c r="F7" s="60" t="s">
-        <v>129</v>
+      <c r="F7" s="59" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
@@ -5231,20 +5493,20 @@
       <c r="D8" s="21">
         <v>80</v>
       </c>
-      <c r="F8" s="60" t="s">
-        <v>130</v>
+      <c r="F8" s="59" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="21">
         <v>50</v>
       </c>
-      <c r="F9" s="60" t="s">
-        <v>131</v>
+      <c r="F9" s="59" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5280,7 +5542,10 @@
       <c r="E13" s="24">
         <v>2000</v>
       </c>
-      <c r="F13" s="31"/>
+      <c r="F13" s="30">
+        <f>IF(YEAR(C13)&lt;1980,150,IF(YEAR(C13)&lt;1990,100,IF(YEAR(C13)&lt;2001,80,50)))</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
@@ -5295,7 +5560,10 @@
       <c r="E14" s="24">
         <v>1500</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="30">
+        <f t="shared" ref="F14:F21" si="0">IF(YEAR(C14)&lt;1980,150,IF(YEAR(C14)&lt;1990,100,IF(YEAR(C14)&lt;2001,80,50)))</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
@@ -5310,7 +5578,10 @@
       <c r="E15" s="24">
         <v>2500</v>
       </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="30">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.25">
@@ -5326,7 +5597,10 @@
       <c r="E16" s="24">
         <v>1500</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="30">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
@@ -5341,7 +5615,10 @@
       <c r="E17" s="24">
         <v>1000</v>
       </c>
-      <c r="F17" s="31"/>
+      <c r="F17" s="30">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
@@ -5356,7 +5633,10 @@
       <c r="E18" s="24">
         <v>800</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="19" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
@@ -5371,7 +5651,10 @@
       <c r="E19" s="24">
         <v>1500</v>
       </c>
-      <c r="F19" s="31"/>
+      <c r="F19" s="30">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="20" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
@@ -5386,7 +5669,10 @@
       <c r="E20" s="24">
         <v>2000</v>
       </c>
-      <c r="F20" s="31"/>
+      <c r="F20" s="30">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="21" spans="2:6" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
@@ -5401,7 +5687,10 @@
       <c r="E21" s="24">
         <v>1200</v>
       </c>
-      <c r="F21" s="31"/>
+      <c r="F21" s="30">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D32" s="5"/>
